--- a/data/2023/fid/FID-BIFO-DE-Bs78.xlsx
+++ b/data/2023/fid/FID-BIFO-DE-Bs78.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="144">
   <si>
     <t>ZDBDID</t>
   </si>
@@ -91,12 +91,120 @@
     <t>FL-Bibliotheken</t>
   </si>
   <si>
+    <t>2060175-X</t>
+  </si>
+  <si>
+    <t>online</t>
+  </si>
+  <si>
+    <t>nk;b</t>
+  </si>
+  <si>
+    <t>Journal of special education technology</t>
+  </si>
+  <si>
+    <t>Sage Publishing;Technology and Media Division of the Council for Exceptional Children</t>
+  </si>
+  <si>
+    <t>Thousand Oaks, CA;Arlington, Va.</t>
+  </si>
+  <si>
+    <t>eng</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>2381-3121</t>
+  </si>
+  <si>
+    <t>370</t>
+  </si>
+  <si>
+    <t>5,3;FID-BIFO-HF-DE-11;FID-BIFO-DE-29;FID-BIFO-DE-Bs78;FID-BIFO-DE-B478</t>
+  </si>
+  <si>
+    <t>1.1978 -</t>
+  </si>
+  <si>
+    <t>http://www.bibliothek.uni-regensburg.de/ezeit/?2060175;https://www.isetcec.org/journal-of-special-education-technology-jset/;https://journals.sagepub.com/loi/JST</t>
+  </si>
+  <si>
+    <t>84</t>
+  </si>
+  <si>
+    <t>DE-1a;DE-3;DE-4;DE-7;DE-9;DE-12;DE-14;DE-15;DE-15-292;DE-16;DE-18;DE-19;DE-M347;DE-862;DE-863;DE-20;DE-21;DE-24;DE-25;DE-Frei129;DE-Frei160;DE-Ofb1;DE-Fn1;DE-26;DE-27;DE-29;DE-1102;DE-66;DE-83;DE-84;DE-89;DE-91;DE-1028;DE-861;DE-93;DE-100;DE-180;DE-Hed2;DE-943;DE-289;DE-291;DE-Sa18;DE-355;DE-1046;DE-898;DE-1050;DE-384;DE-Aug4;DE-473;DE-517;DE-521;DE-547;DE-703;DE-705;DE-860;DE-739;DE-824;DE-830;DE-Hil2;DE-Ma9;DE-551;DE-552;DE-Luen4;DE-Ch1;DE-Ilm1;DE-Wim2;DE-753;DE-972;DE-634;DE-1105;DE-Rt2;DE-944;DE-958;DE-706;DE-F197;DE-1373;DE-Rt3;DE-Stg117;DE-960-1;DE-960-3;DE-526;DE-751;DE-1866;DE-840</t>
+  </si>
+  <si>
+    <t>2066577-5</t>
+  </si>
+  <si>
+    <t>Journal of education</t>
+  </si>
+  <si>
+    <t>Sage Publishing</t>
+  </si>
+  <si>
+    <t>Thousand Oaks, CA</t>
+  </si>
+  <si>
+    <t>2515-5741</t>
+  </si>
+  <si>
+    <t>FID-BIFO-HF-DE-11;FID-BIFO-DE-29;FID-BIFO-DE-Bs78;FID-BIFO-DE-B478</t>
+  </si>
+  <si>
+    <t>2975299-1;2975303-X;2901656-3</t>
+  </si>
+  <si>
+    <t>Vol. 35, no. 25 (June 23, 1892) [?]-</t>
+  </si>
+  <si>
+    <t>http://www.bibliothek.uni-regensburg.de/ezeit/?2066577;https://journals.sagepub.com/loi/jex;http://www.jstor.org/journal/jeducation;http://www.jstor.org/journal/jeducation</t>
+  </si>
+  <si>
+    <t>KW</t>
+  </si>
+  <si>
+    <t>106</t>
+  </si>
+  <si>
+    <t>DE-1a;DE-3;DE-4;DE-7;DE-8;DE-9;DE-12;DE-14;DE-15;DE-15-292;DE-16;DE-18;DE-M347;DE-210;DE-19;DE-20;DE-862;DE-863;DE-21;DE-24;DE-Frei160;DE-25;DE-Frei129;DE-Ofb1;DE-Fn1;DE-26;DE-27;DE-28;DE-29;DE-92;DE-1102;DE-946;DE-31;DE-43;DE-66;DE-83;DE-84;DE-89;DE-90;DE-91;DE-1028;DE-861;DE-93;DE-95;DE-100;DE-180;DE-Hed2;DE-943;DE-289;DE-Sa18;DE-291;DE-352;DE-355;DE-898;DE-155;DE-1046;DE-1050;DE-384;DE-Aug4;DE-37;DE-859;DE-473;DE-70;DE-517;DE-521;DE-547;DE-703;DE-858;DE-705;DE-739;DE-860;DE-824;DE-573;DE-150;DE-830;DE-Hil2;DE-Ma9;DE-551;DE-552;DE-Luen4;DE-Ch1;DE-Ilm1;DE-Wim2;DE-542;DE-841;DE-546;DE-753;DE-972;DE-634;DE-1105;DE-Rt2;DE-944;DE-958;DE-354;DE-706;DE-F197;DE-1373;DE-Rt3;DE-Stg117;DE-960-1;DE-960-3;DE-526;DE-523;DE-751;DE-1866;DE-840</t>
+  </si>
+  <si>
+    <t>2070978-X</t>
+  </si>
+  <si>
+    <t>Rural special education quarterly</t>
+  </si>
+  <si>
+    <t>Sage Publishing;National Rural Project</t>
+  </si>
+  <si>
+    <t>Thousand Oaks, CA;Bellingham, Wash.</t>
+  </si>
+  <si>
+    <t>2168-8605</t>
+  </si>
+  <si>
+    <t>370;630;640</t>
+  </si>
+  <si>
+    <t>Vol. 5, no. 1 (spring 1984)-</t>
+  </si>
+  <si>
+    <t>https://journals.sagepub.com/loi/rsq;http://www.bibliothek.uni-regensburg.de/ezeit/?2070978</t>
+  </si>
+  <si>
+    <t>82</t>
+  </si>
+  <si>
+    <t>DE-1a;DE-3;DE-4;DE-7;DE-9;DE-12;DE-14;DE-15;DE-15-292;DE-16;DE-18;DE-19;DE-M347;DE-862;DE-863;DE-20;DE-21;DE-24;DE-25;DE-Frei129;DE-Frei160;DE-Ofb1;DE-Fn1;DE-26;DE-27;DE-29;DE-1102;DE-66;DE-84;DE-89;DE-91;DE-1028;DE-861;DE-93;DE-100;DE-180;DE-Hed2;DE-943;DE-289;DE-291;DE-Sa18;DE-355;DE-1046;DE-898;DE-1050;DE-384;DE-Aug4;DE-473;DE-517;DE-521;DE-547;DE-703;DE-705;DE-860;DE-739;DE-824;DE-830;DE-Hil2;DE-Ma9;DE-551;DE-552;DE-Luen4;DE-Ch1;DE-Ilm1;DE-Wim2;DE-752;DE-634;DE-1105;DE-Rt2;DE-944;DE-958;DE-706;DE-F197;DE-1373;DE-Rt3;DE-Stg117;DE-960-1;DE-960-3;DE-526;DE-751;DE-1866;DE-840</t>
+  </si>
+  <si>
     <t>2441707-5</t>
   </si>
   <si>
-    <t>online</t>
-  </si>
-  <si>
     <t>nl;b</t>
   </si>
   <si>
@@ -109,18 +217,9 @@
     <t>Chicago, Ill.</t>
   </si>
   <si>
-    <t>eng</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
     <t>370;360</t>
   </si>
   <si>
-    <t>5,3;FID-BIFO-HF-DE-11;FID-BIFO-DE-29;FID-BIFO-DE-Bs78;FID-BIFO-DE-B478</t>
-  </si>
-  <si>
     <t>Volume 31, Number 3 (July 2006)-</t>
   </si>
   <si>
@@ -136,6 +235,27 @@
     <t>DE-3;DE-7;DE-8;DE-9;DE-12;DE-14;DE-16;DE-18;DE-M347;DE-19;DE-20;DE-21;DE-Frei129;DE-25;DE-Frei160;DE-Ofb1;DE-26;DE-27;DE-29;DE-92;DE-31;DE-66;DE-84;DE-89;DE-90;DE-91;DE-93;DE-180;DE-291;DE-Sa18;DE-352;DE-355;DE-473;DE-517;DE-547;DE-703;DE-705;DE-830;DE-Hil2;DE-Ma9;DE-Ma14;DE-Luen4;DE-753;DE-972;DE-634;DE-747;DE-Rt3;DE-Stg117;DE-526;DE-751</t>
   </si>
   <si>
+    <t>2082132-3</t>
+  </si>
+  <si>
+    <t>Australian education index</t>
+  </si>
+  <si>
+    <t>Australian Council for Educational Research;ProQuest LLC</t>
+  </si>
+  <si>
+    <t>Camberwell;Ann Arbor, Michigan</t>
+  </si>
+  <si>
+    <t>http://www.informit.com.au/browse.asp?itemID=AEI;https://dbis.uni-regensburg.de/frontdoor.php?titel_id=2106</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>DE-6;DE-25;DE-Frei129</t>
+  </si>
+  <si>
     <t>2202056-1</t>
   </si>
   <si>
@@ -151,214 +271,163 @@
     <t>2515-7582</t>
   </si>
   <si>
-    <t>370</t>
-  </si>
-  <si>
-    <t>FID-BIFO-HF-DE-11;FID-BIFO-DE-29;FID-BIFO-DE-Bs78;FID-BIFO-DE-B478</t>
-  </si>
-  <si>
     <t>Nachgewiesen 2001 -</t>
   </si>
   <si>
     <t>http://www.bibliothek.uni-regensburg.de/ezeit/?2202056;https://www.magonlinelibrary.com/loi/cypn;https://www.cypnow.co.uk/</t>
   </si>
   <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>DE-3;DE-4;DE-8;DE-12;DE-14;DE-16;DE-19;DE-M347;DE-20;DE-21;DE-Frei129;DE-Frei160;DE-25;DE-26;DE-29;DE-31;DE-66;DE-91;DE-180;DE-291;DE-355;DE-473;DE-517;DE-547;DE-703;DE-830;DE-Ma9;DE-Luen4;DE-753;DE-972;DE-634;DE-706;DE-Rt3;DE-Stg117;DE-751</t>
+  </si>
+  <si>
+    <t>2209598-6</t>
+  </si>
+  <si>
+    <t>Journal of adult and continuing education</t>
+  </si>
+  <si>
+    <t>Los Angeles, Calif.</t>
+  </si>
+  <si>
+    <t>1479-7194</t>
+  </si>
+  <si>
+    <t>Volume 7, issue 1 (2001) [?]-</t>
+  </si>
+  <si>
+    <t>http://www.bibliothek.uni-regensburg.de/ezeit/?2209598;https://journals.sagepub.com/loi/ADU</t>
+  </si>
+  <si>
+    <t>83</t>
+  </si>
+  <si>
+    <t>DE-1a;DE-3;DE-4;DE-7;DE-9;DE-12;DE-14;DE-15;DE-15-292;DE-16;DE-18;DE-19;DE-M347;DE-862;DE-863;DE-20;DE-21;DE-24;DE-25;DE-Frei129;DE-Frei160;DE-Ofb1;DE-Fn1;DE-26;DE-27;DE-29;DE-1102;DE-66;DE-83;DE-84;DE-89;DE-91;DE-1028;DE-861;DE-93;DE-100;DE-180;DE-Hed2;DE-943;DE-289;DE-291;DE-Sa18;DE-352;DE-355;DE-1046;DE-898;DE-1050;DE-384;DE-Aug4;DE-473;DE-517;DE-521;DE-547;DE-703;DE-705;DE-860;DE-739;DE-824;DE-830;DE-Hil2;DE-Ma9;DE-551;DE-552;DE-Luen4;DE-Ch1;DE-Ilm1;DE-Wim2;DE-634;DE-1105;DE-Rt2;DE-944;DE-958;DE-706;DE-F197;DE-1373;DE-Rt3;DE-Stg117;DE-960-1;DE-960-3;DE-526;DE-751;DE-1866;DE-840</t>
+  </si>
+  <si>
+    <t>2017378-7</t>
+  </si>
+  <si>
+    <t>Journal on excellence in college teaching</t>
+  </si>
+  <si>
+    <t>Miami Univ.</t>
+  </si>
+  <si>
+    <t>Oxford, Ohio</t>
+  </si>
+  <si>
+    <t>1945-2993</t>
+  </si>
+  <si>
+    <t>1.1990 -</t>
+  </si>
+  <si>
+    <t>http://www.bibliothek.uni-regensburg.de/ezeit/?2017378;http://celt.muohio.edu/ject/</t>
+  </si>
+  <si>
+    <t>41</t>
+  </si>
+  <si>
+    <t>DE-1a;DE-3;DE-4;DE-7;DE-9;DE-12;DE-14;DE-16;DE-18;DE-19;DE-20;DE-21;DE-25;DE-Frei129;DE-Ofb1;DE-26;DE-27;DE-29;DE-83;DE-89;DE-90;DE-91;DE-93;DE-180;DE-Sa18;DE-291;DE-355;DE-473;DE-517;DE-547;DE-703;DE-150;DE-830;DE-Luen4;DE-Wim2;DE-752;DE-753;DE-972;DE-Bi10;DE-Rt3;DE-751</t>
+  </si>
+  <si>
+    <t>3073599-3</t>
+  </si>
+  <si>
+    <t>Journal of the first-year experience &amp; students in transition</t>
+  </si>
+  <si>
+    <t>University of South Carolina</t>
+  </si>
+  <si>
+    <t>Columbia, SC</t>
+  </si>
+  <si>
+    <t>2373-0153</t>
+  </si>
+  <si>
+    <t>1.1989-</t>
+  </si>
+  <si>
+    <t>https://sc.edu/about/offices_and_divisions/national_resource_center/publications/journal/index.php;https://www.ingentaconnect.com/content/2373-0153;https://www.ingentaconnect.com/content/2373-0153;http://www.bibliothek.uni-regensburg.de/ezeit/?3073599</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>DE-3;DE-4;DE-7;DE-12;DE-14;DE-16;DE-18;DE-19;DE-20;DE-25;DE-Frei129;DE-Ofb1;DE-26;DE-27;DE-29;DE-89;DE-91;DE-93;DE-180;DE-291;DE-355;DE-1050;DE-473;DE-517;DE-547;DE-703;DE-705;DE-150;DE-830;DE-Ma9;DE-752;DE-753;DE-972;DE-634;DE-526;DE-751</t>
+  </si>
+  <si>
+    <t>2880584-7</t>
+  </si>
+  <si>
+    <t>vi;b</t>
+  </si>
+  <si>
+    <t>Education in video</t>
+  </si>
+  <si>
+    <t>Alexander Street Press</t>
+  </si>
+  <si>
+    <t>Alexandria, Va.</t>
+  </si>
+  <si>
+    <t>2014-</t>
+  </si>
+  <si>
+    <t>http://search.alexanderstreet.com/ediv;https://video.alexanderstreet.com/channel/education-in-video;http://dbis.uni-regensburg.de/frontdoor.php?titel_id=100327;http://dbis.uni-regensburg.de/frontdoor.php?titel_id=100331</t>
+  </si>
+  <si>
+    <t>DE-6;DE-830;DE-929</t>
+  </si>
+  <si>
+    <t>2885032-4</t>
+  </si>
+  <si>
+    <t>Intered</t>
+  </si>
+  <si>
+    <t>Mark Allen Group</t>
+  </si>
+  <si>
+    <t>1997-</t>
+  </si>
+  <si>
+    <t>http://dbis.uni-regensburg.de/frontdoor.php?titel_id=103067;https://www.magonlinelibrary.com/action/showCategory?categoryCode=intered-plus</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>DE-6</t>
+  </si>
+  <si>
+    <t>2890266-X</t>
+  </si>
+  <si>
+    <t>Policy reviews in higher education</t>
+  </si>
+  <si>
+    <t>Taylor &amp; Francis Group</t>
+  </si>
+  <si>
+    <t>2332-2950</t>
+  </si>
+  <si>
+    <t>Volume 1, issue 1 (2017)-</t>
+  </si>
+  <si>
+    <t>https://www.tandfonline.com/loi/rprh20;http://www.bibliothek.uni-regensburg.de/ezeit/?2890266</t>
+  </si>
+  <si>
     <t>34</t>
   </si>
   <si>
-    <t>DE-3;DE-4;DE-8;DE-12;DE-14;DE-16;DE-19;DE-M347;DE-20;DE-21;DE-Frei129;DE-Frei160;DE-25;DE-26;DE-29;DE-31;DE-66;DE-91;DE-180;DE-291;DE-355;DE-473;DE-517;DE-547;DE-703;DE-830;DE-Ma9;DE-Luen4;DE-753;DE-972;DE-634;DE-706;DE-Rt3;DE-Stg117</t>
-  </si>
-  <si>
-    <t>2209598-6</t>
-  </si>
-  <si>
-    <t>nk;b</t>
-  </si>
-  <si>
-    <t>Journal of adult and continuing education</t>
-  </si>
-  <si>
-    <t>Sage Publishing</t>
-  </si>
-  <si>
-    <t>Los Angeles, Calif.</t>
-  </si>
-  <si>
-    <t>1479-7194</t>
-  </si>
-  <si>
-    <t>Volume 7, issue 1 (2001) [?]-</t>
-  </si>
-  <si>
-    <t>http://www.bibliothek.uni-regensburg.de/ezeit/?2209598;https://journals.sagepub.com/loi/ADU</t>
-  </si>
-  <si>
-    <t>84</t>
-  </si>
-  <si>
-    <t>DE-1a;DE-3;DE-4;DE-7;DE-9;DE-12;DE-14;DE-15;DE-15-292;DE-16;DE-18;DE-19;DE-M347;DE-862;DE-863;DE-20;DE-21;DE-24;DE-25;DE-Frei129;DE-Frei160;DE-Ofb1;DE-Fn1;DE-26;DE-27;DE-29;DE-1102;DE-66;DE-83;DE-84;DE-89;DE-91;DE-1028;DE-861;DE-93;DE-100;DE-180;DE-Hed2;DE-943;DE-289;DE-291;DE-Sa18;DE-352;DE-355;DE-1046;DE-898;DE-1050;DE-384;DE-Aug4;DE-473;DE-517;DE-521;DE-547;DE-703;DE-705;DE-860;DE-739;DE-824;DE-830;DE-Hil2;DE-Ma9;DE-551;DE-552;DE-Luen4;DE-Ch1;DE-Ilm1;DE-Wim2;DE-634;DE-1105;DE-Rt2;DE-944;DE-958;DE-D120;DE-706;DE-F197;DE-1373;DE-Rt3;DE-Stg117;DE-960-1;DE-960-3;DE-526;DE-751;DE-1866;DE-840</t>
-  </si>
-  <si>
-    <t>2017378-7</t>
-  </si>
-  <si>
-    <t>Journal on excellence in college teaching</t>
-  </si>
-  <si>
-    <t>Miami Univ.</t>
-  </si>
-  <si>
-    <t>Oxford, Ohio</t>
-  </si>
-  <si>
-    <t>1945-2993</t>
-  </si>
-  <si>
-    <t>1.1990 -</t>
-  </si>
-  <si>
-    <t>http://www.bibliothek.uni-regensburg.de/ezeit/?2017378;http://celt.muohio.edu/ject/</t>
-  </si>
-  <si>
-    <t>40</t>
-  </si>
-  <si>
-    <t>DE-1a;DE-3;DE-4;DE-7;DE-9;DE-12;DE-14;DE-16;DE-18;DE-19;DE-20;DE-21;DE-25;DE-Frei129;DE-Ofb1;DE-26;DE-27;DE-29;DE-83;DE-89;DE-90;DE-91;DE-93;DE-180;DE-Sa18;DE-291;DE-355;DE-473;DE-517;DE-547;DE-703;DE-830;DE-Luen4;DE-Wim2;DE-752;DE-753;DE-972;DE-Bi10;DE-Rt3;DE-751</t>
-  </si>
-  <si>
-    <t>3073599-3</t>
-  </si>
-  <si>
-    <t>Journal of the first-year experience &amp; students in transition</t>
-  </si>
-  <si>
-    <t>University of South Carolina</t>
-  </si>
-  <si>
-    <t>Columbia, SC</t>
-  </si>
-  <si>
-    <t>2373-0153</t>
-  </si>
-  <si>
-    <t>1.1989-</t>
-  </si>
-  <si>
-    <t>https://sc.edu/about/offices_and_divisions/national_resource_center/publications/journal/index.php;https://www.ingentaconnect.com/content/2373-0153;https://www.ingentaconnect.com/content/2373-0153;http://www.bibliothek.uni-regensburg.de/ezeit/?3073599</t>
-  </si>
-  <si>
-    <t>33</t>
-  </si>
-  <si>
-    <t>DE-3;DE-4;DE-7;DE-12;DE-14;DE-16;DE-18;DE-19;DE-20;DE-25;DE-Frei129;DE-26;DE-27;DE-29;DE-89;DE-91;DE-93;DE-180;DE-291;DE-355;DE-1050;DE-473;DE-517;DE-547;DE-703;DE-830;DE-Ma9;DE-752;DE-753;DE-972;DE-634;DE-526;DE-751</t>
-  </si>
-  <si>
-    <t>2060175-X</t>
-  </si>
-  <si>
-    <t>Journal of special education technology</t>
-  </si>
-  <si>
-    <t>Sage Publishing;Technology and Media Division of the Council for Exceptional Children</t>
-  </si>
-  <si>
-    <t>Thousand Oaks, CA;Arlington, Va.</t>
-  </si>
-  <si>
-    <t>2381-3121</t>
-  </si>
-  <si>
-    <t>1.1978 -</t>
-  </si>
-  <si>
-    <t>http://www.bibliothek.uni-regensburg.de/ezeit/?2060175;https://www.isetcec.org/journal-of-special-education-technology-jset/;https://journals.sagepub.com/loi/JST</t>
-  </si>
-  <si>
-    <t>85</t>
-  </si>
-  <si>
-    <t>DE-1a;DE-3;DE-4;DE-7;DE-9;DE-12;DE-14;DE-15;DE-15-292;DE-16;DE-18;DE-19;DE-M347;DE-862;DE-863;DE-20;DE-21;DE-24;DE-25;DE-Frei129;DE-Frei160;DE-Ofb1;DE-Fn1;DE-26;DE-27;DE-29;DE-1102;DE-66;DE-83;DE-84;DE-89;DE-91;DE-1028;DE-861;DE-93;DE-100;DE-180;DE-Hed2;DE-943;DE-289;DE-291;DE-Sa18;DE-355;DE-1046;DE-898;DE-1050;DE-384;DE-Aug4;DE-473;DE-517;DE-521;DE-547;DE-703;DE-705;DE-860;DE-739;DE-824;DE-830;DE-Hil2;DE-Ma9;DE-551;DE-552;DE-Luen4;DE-Ch1;DE-Ilm1;DE-Wim2;DE-753;DE-972;DE-634;DE-1105;DE-Rt2;DE-944;DE-958;DE-D120;DE-706;DE-F197;DE-1373;DE-Rt3;DE-Stg117;DE-960-1;DE-960-3;DE-526;DE-751;DE-1866;DE-840</t>
-  </si>
-  <si>
-    <t>2066577-5</t>
-  </si>
-  <si>
-    <t>Journal of education</t>
-  </si>
-  <si>
-    <t>Thousand Oaks, CA</t>
-  </si>
-  <si>
-    <t>2515-5741</t>
-  </si>
-  <si>
-    <t>2975299-1;2975303-X;2901656-3</t>
-  </si>
-  <si>
-    <t>Vol. 35, no. 25 (June 23, 1892) [?]-</t>
-  </si>
-  <si>
-    <t>http://www.bibliothek.uni-regensburg.de/ezeit/?2066577;https://journals.sagepub.com/loi/jex;http://www.jstor.org/journal/jeducation;http://www.jstor.org/journal/jeducation</t>
-  </si>
-  <si>
-    <t>KW</t>
-  </si>
-  <si>
-    <t>106</t>
-  </si>
-  <si>
-    <t>DE-1a;DE-3;DE-4;DE-7;DE-8;DE-9;DE-12;DE-14;DE-15;DE-15-292;DE-16;DE-18;DE-M347;DE-210;DE-19;DE-20;DE-862;DE-863;DE-21;DE-24;DE-Frei160;DE-25;DE-Frei129;DE-Ofb1;DE-Fn1;DE-26;DE-27;DE-28;DE-29;DE-92;DE-1102;DE-946;DE-31;DE-43;DE-66;DE-83;DE-84;DE-89;DE-90;DE-91;DE-1028;DE-861;DE-93;DE-95;DE-100;DE-180;DE-Hed2;DE-943;DE-289;DE-Sa18;DE-291;DE-352;DE-355;DE-898;DE-155;DE-1046;DE-1050;DE-384;DE-Aug4;DE-37;DE-859;DE-473;DE-70;DE-517;DE-521;DE-547;DE-703;DE-858;DE-705;DE-739;DE-860;DE-824;DE-573;DE-150;DE-830;DE-Hil2;DE-Ma9;DE-551;DE-552;DE-Luen4;DE-Ch1;DE-Ilm1;DE-Wim2;DE-542;DE-841;DE-546;DE-753;DE-972;DE-634;DE-1105;DE-Rt2;DE-944;DE-958;DE-354;DE-D120;DE-706;DE-F197;DE-1373;DE-Rt3;DE-Stg117;DE-960-1;DE-960-3;DE-526;DE-751;DE-1866;DE-840</t>
-  </si>
-  <si>
-    <t>2070978-X</t>
-  </si>
-  <si>
-    <t>Rural special education quarterly</t>
-  </si>
-  <si>
-    <t>Sage Publishing;National Rural Project</t>
-  </si>
-  <si>
-    <t>Thousand Oaks, CA;Bellingham, Wash.</t>
-  </si>
-  <si>
-    <t>2168-8605</t>
-  </si>
-  <si>
-    <t>370;630;640</t>
-  </si>
-  <si>
-    <t>Vol. 5, no. 1 (spring 1984)-</t>
-  </si>
-  <si>
-    <t>https://journals.sagepub.com/loi/rsq;http://www.bibliothek.uni-regensburg.de/ezeit/?2070978</t>
-  </si>
-  <si>
-    <t>83</t>
-  </si>
-  <si>
-    <t>DE-1a;DE-3;DE-4;DE-7;DE-9;DE-12;DE-14;DE-15;DE-15-292;DE-16;DE-18;DE-19;DE-M347;DE-862;DE-863;DE-20;DE-21;DE-24;DE-25;DE-Frei129;DE-Frei160;DE-Ofb1;DE-Fn1;DE-26;DE-27;DE-29;DE-1102;DE-66;DE-84;DE-89;DE-91;DE-1028;DE-861;DE-93;DE-100;DE-180;DE-Hed2;DE-943;DE-289;DE-291;DE-Sa18;DE-355;DE-1046;DE-898;DE-1050;DE-384;DE-Aug4;DE-473;DE-517;DE-521;DE-547;DE-703;DE-705;DE-860;DE-739;DE-824;DE-830;DE-Hil2;DE-Ma9;DE-551;DE-552;DE-Luen4;DE-Ch1;DE-Ilm1;DE-Wim2;DE-752;DE-634;DE-1105;DE-Rt2;DE-944;DE-958;DE-D120;DE-706;DE-F197;DE-1373;DE-Rt3;DE-Stg117;DE-960-1;DE-960-3;DE-526;DE-751;DE-1866;DE-840</t>
-  </si>
-  <si>
-    <t>2082132-3</t>
-  </si>
-  <si>
-    <t>Australian education index</t>
-  </si>
-  <si>
-    <t>Australian Council for Educational Research;ProQuest LLC</t>
-  </si>
-  <si>
-    <t>Camberwell;Ann Arbor, Michigan</t>
-  </si>
-  <si>
-    <t>http://www.informit.com.au/browse.asp?itemID=AEI;https://dbis.uni-regensburg.de/frontdoor.php?titel_id=2106</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>DE-6;DE-25;DE-Frei129</t>
+    <t>DE-1a;DE-3;DE-9;DE-12;DE-14;DE-16;DE-18;DE-19;DE-20;DE-21;DE-Frei129;DE-25;DE-26;DE-27;DE-29;DE-66;DE-83;DE-90;DE-91;DE-100;DE-180;DE-291;DE-Sa18;DE-352;DE-473;DE-705;DE-753;DE-972;DE-634;DE-944;DE-747;DE-526;DE-751;DE-840</t>
   </si>
   <si>
     <t>3137018-4</t>
@@ -373,76 +442,10 @@
     <t>https://dbis.uni-regensburg.de/frontdoor.php?titel_id=103253;https://www.becs-bloomsbury.com/</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>2880584-7</t>
-  </si>
-  <si>
-    <t>vi;b</t>
-  </si>
-  <si>
-    <t>Education in video</t>
-  </si>
-  <si>
-    <t>Alexander Street Press</t>
-  </si>
-  <si>
-    <t>Alexandria, Va.</t>
-  </si>
-  <si>
-    <t>2014-</t>
-  </si>
-  <si>
-    <t>http://search.alexanderstreet.com/ediv;https://video.alexanderstreet.com/channel/education-in-video;http://dbis.uni-regensburg.de/frontdoor.php?titel_id=100327;http://dbis.uni-regensburg.de/frontdoor.php?titel_id=100331</t>
-  </si>
-  <si>
-    <t>DE-6;DE-830;DE-929</t>
-  </si>
-  <si>
-    <t>2885032-4</t>
-  </si>
-  <si>
-    <t>Intered</t>
-  </si>
-  <si>
-    <t>Mark Allen Group</t>
-  </si>
-  <si>
-    <t>1997-</t>
-  </si>
-  <si>
-    <t>http://dbis.uni-regensburg.de/frontdoor.php?titel_id=103067;https://www.magonlinelibrary.com/action/showCategory?categoryCode=intered-plus</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>DE-6</t>
-  </si>
-  <si>
-    <t>2890266-X</t>
-  </si>
-  <si>
-    <t>Policy reviews in higher education</t>
-  </si>
-  <si>
-    <t>Taylor &amp; Francis Group</t>
-  </si>
-  <si>
-    <t>2332-2950</t>
-  </si>
-  <si>
-    <t>Volume 1, issue 1 (2017)-</t>
-  </si>
-  <si>
-    <t>https://www.tandfonline.com/loi/rprh20;http://www.bibliothek.uni-regensburg.de/ezeit/?2890266</t>
-  </si>
-  <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t>DE-1a;DE-9;DE-19;DE-20;DE-21;DE-Frei129;DE-66;DE-100;DE-291;DE-352;DE-473;DE-705;DE-753;DE-972;DE-944;DE-747;DE-526;DE-840</t>
+    <t>2</t>
+  </si>
+  <si>
+    <t>DE-Frei129;DE-25</t>
   </si>
 </sst>
 </file>
@@ -883,13 +886,13 @@
         <v>32</v>
       </c>
       <c r="I2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="J2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L2" t="s">
         <v>32</v>
@@ -910,13 +913,13 @@
         <v>32</v>
       </c>
       <c r="R2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="S2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="T2" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="U2" t="s">
         <v>32</v>
@@ -963,28 +966,28 @@
         <v>44</v>
       </c>
       <c r="J3" t="s">
+        <v>34</v>
+      </c>
+      <c r="K3" t="s">
         <v>45</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
+        <v>32</v>
+      </c>
+      <c r="M3" t="s">
+        <v>32</v>
+      </c>
+      <c r="N3" t="s">
+        <v>32</v>
+      </c>
+      <c r="O3" t="s">
+        <v>32</v>
+      </c>
+      <c r="P3" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q3" t="s">
         <v>46</v>
-      </c>
-      <c r="L3" t="s">
-        <v>32</v>
-      </c>
-      <c r="M3" t="s">
-        <v>32</v>
-      </c>
-      <c r="N3" t="s">
-        <v>32</v>
-      </c>
-      <c r="O3" t="s">
-        <v>32</v>
-      </c>
-      <c r="P3" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>32</v>
       </c>
       <c r="R3" t="s">
         <v>47</v>
@@ -993,7 +996,7 @@
         <v>48</v>
       </c>
       <c r="T3" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="U3" t="s">
         <v>32</v>
@@ -1005,21 +1008,21 @@
         <v>32</v>
       </c>
       <c r="X3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Y3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:25">
       <c r="A4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B4" t="s">
         <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>52</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
         <v>53</v>
@@ -1040,11 +1043,11 @@
         <v>56</v>
       </c>
       <c r="J4" t="s">
+        <v>57</v>
+      </c>
+      <c r="K4" t="s">
         <v>45</v>
       </c>
-      <c r="K4" t="s">
-        <v>34</v>
-      </c>
       <c r="L4" t="s">
         <v>32</v>
       </c>
@@ -1064,10 +1067,10 @@
         <v>32</v>
       </c>
       <c r="R4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S4" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T4" t="s">
         <v>32</v>
@@ -1082,30 +1085,30 @@
         <v>32</v>
       </c>
       <c r="X4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Y4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:25">
       <c r="A5" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B5" t="s">
         <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>27</v>
+        <v>63</v>
       </c>
       <c r="D5" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E5" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F5" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="G5" t="s">
         <v>31</v>
@@ -1114,13 +1117,13 @@
         <v>32</v>
       </c>
       <c r="I5" t="s">
-        <v>65</v>
+        <v>32</v>
       </c>
       <c r="J5" t="s">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="K5" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="L5" t="s">
         <v>32</v>
@@ -1141,13 +1144,13 @@
         <v>32</v>
       </c>
       <c r="R5" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="S5" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="T5" t="s">
-        <v>32</v>
+        <v>70</v>
       </c>
       <c r="U5" t="s">
         <v>32</v>
@@ -1159,30 +1162,30 @@
         <v>32</v>
       </c>
       <c r="X5" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="Y5" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
     </row>
     <row r="6" spans="1:25">
       <c r="A6" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B6" t="s">
         <v>26</v>
       </c>
       <c r="C6" t="s">
-        <v>27</v>
+        <v>63</v>
       </c>
       <c r="D6" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="E6" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="F6" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="G6" t="s">
         <v>31</v>
@@ -1191,13 +1194,13 @@
         <v>32</v>
       </c>
       <c r="I6" t="s">
-        <v>74</v>
+        <v>32</v>
       </c>
       <c r="J6" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="K6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L6" t="s">
         <v>32</v>
@@ -1218,13 +1221,13 @@
         <v>32</v>
       </c>
       <c r="R6" t="s">
-        <v>75</v>
+        <v>32</v>
       </c>
       <c r="S6" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T6" t="s">
-        <v>37</v>
+        <v>70</v>
       </c>
       <c r="U6" t="s">
         <v>32</v>
@@ -1236,30 +1239,30 @@
         <v>32</v>
       </c>
       <c r="X6" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y6" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="7" spans="1:25">
       <c r="A7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B7" t="s">
         <v>26</v>
       </c>
       <c r="C7" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="D7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G7" t="s">
         <v>31</v>
@@ -1268,14 +1271,14 @@
         <v>32</v>
       </c>
       <c r="I7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J7" t="s">
+        <v>34</v>
+      </c>
+      <c r="K7" t="s">
         <v>45</v>
       </c>
-      <c r="K7" t="s">
-        <v>34</v>
-      </c>
       <c r="L7" t="s">
         <v>32</v>
       </c>
@@ -1295,10 +1298,10 @@
         <v>32</v>
       </c>
       <c r="R7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="S7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="T7" t="s">
         <v>32</v>
@@ -1313,30 +1316,30 @@
         <v>32</v>
       </c>
       <c r="X7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="Y7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="8" spans="1:25">
       <c r="A8" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B8" t="s">
         <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>52</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E8" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="F8" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G8" t="s">
         <v>31</v>
@@ -1345,13 +1348,13 @@
         <v>32</v>
       </c>
       <c r="I8" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="J8" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="K8" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="L8" t="s">
         <v>32</v>
@@ -1369,7 +1372,7 @@
         <v>32</v>
       </c>
       <c r="Q8" t="s">
-        <v>92</v>
+        <v>32</v>
       </c>
       <c r="R8" t="s">
         <v>93</v>
@@ -1378,42 +1381,42 @@
         <v>94</v>
       </c>
       <c r="T8" t="s">
+        <v>32</v>
+      </c>
+      <c r="U8" t="s">
+        <v>32</v>
+      </c>
+      <c r="V8" t="s">
+        <v>32</v>
+      </c>
+      <c r="W8" t="s">
+        <v>32</v>
+      </c>
+      <c r="X8" t="s">
         <v>95</v>
       </c>
-      <c r="U8" t="s">
-        <v>32</v>
-      </c>
-      <c r="V8" t="s">
-        <v>32</v>
-      </c>
-      <c r="W8" t="s">
-        <v>32</v>
-      </c>
-      <c r="X8" t="s">
+      <c r="Y8" t="s">
         <v>96</v>
-      </c>
-      <c r="Y8" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="9" spans="1:25">
       <c r="A9" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B9" t="s">
         <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="D9" t="s">
+        <v>98</v>
+      </c>
+      <c r="E9" t="s">
         <v>99</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
         <v>100</v>
-      </c>
-      <c r="F9" t="s">
-        <v>101</v>
       </c>
       <c r="G9" t="s">
         <v>31</v>
@@ -1422,75 +1425,75 @@
         <v>32</v>
       </c>
       <c r="I9" t="s">
+        <v>101</v>
+      </c>
+      <c r="J9" t="s">
+        <v>34</v>
+      </c>
+      <c r="K9" t="s">
+        <v>45</v>
+      </c>
+      <c r="L9" t="s">
+        <v>32</v>
+      </c>
+      <c r="M9" t="s">
+        <v>32</v>
+      </c>
+      <c r="N9" t="s">
+        <v>32</v>
+      </c>
+      <c r="O9" t="s">
+        <v>32</v>
+      </c>
+      <c r="P9" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>32</v>
+      </c>
+      <c r="R9" t="s">
         <v>102</v>
       </c>
-      <c r="J9" t="s">
+      <c r="S9" t="s">
         <v>103</v>
       </c>
-      <c r="K9" t="s">
-        <v>46</v>
-      </c>
-      <c r="L9" t="s">
-        <v>32</v>
-      </c>
-      <c r="M9" t="s">
-        <v>32</v>
-      </c>
-      <c r="N9" t="s">
-        <v>32</v>
-      </c>
-      <c r="O9" t="s">
-        <v>32</v>
-      </c>
-      <c r="P9" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>32</v>
-      </c>
-      <c r="R9" t="s">
+      <c r="T9" t="s">
+        <v>32</v>
+      </c>
+      <c r="U9" t="s">
+        <v>32</v>
+      </c>
+      <c r="V9" t="s">
+        <v>32</v>
+      </c>
+      <c r="W9" t="s">
+        <v>32</v>
+      </c>
+      <c r="X9" t="s">
         <v>104</v>
       </c>
-      <c r="S9" t="s">
+      <c r="Y9" t="s">
         <v>105</v>
-      </c>
-      <c r="T9" t="s">
-        <v>32</v>
-      </c>
-      <c r="U9" t="s">
-        <v>32</v>
-      </c>
-      <c r="V9" t="s">
-        <v>32</v>
-      </c>
-      <c r="W9" t="s">
-        <v>32</v>
-      </c>
-      <c r="X9" t="s">
-        <v>106</v>
-      </c>
-      <c r="Y9" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="10" spans="1:25">
       <c r="A10" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B10" t="s">
         <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>27</v>
+        <v>63</v>
       </c>
       <c r="D10" t="s">
+        <v>107</v>
+      </c>
+      <c r="E10" t="s">
+        <v>108</v>
+      </c>
+      <c r="F10" t="s">
         <v>109</v>
-      </c>
-      <c r="E10" t="s">
-        <v>110</v>
-      </c>
-      <c r="F10" t="s">
-        <v>111</v>
       </c>
       <c r="G10" t="s">
         <v>31</v>
@@ -1499,14 +1502,14 @@
         <v>32</v>
       </c>
       <c r="I10" t="s">
-        <v>32</v>
+        <v>110</v>
       </c>
       <c r="J10" t="s">
+        <v>32</v>
+      </c>
+      <c r="K10" t="s">
         <v>45</v>
       </c>
-      <c r="K10" t="s">
-        <v>46</v>
-      </c>
       <c r="L10" t="s">
         <v>32</v>
       </c>
@@ -1526,13 +1529,13 @@
         <v>32</v>
       </c>
       <c r="R10" t="s">
-        <v>32</v>
+        <v>111</v>
       </c>
       <c r="S10" t="s">
         <v>112</v>
       </c>
       <c r="T10" t="s">
-        <v>37</v>
+        <v>70</v>
       </c>
       <c r="U10" t="s">
         <v>32</v>
@@ -1558,16 +1561,16 @@
         <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>27</v>
+        <v>116</v>
       </c>
       <c r="D11" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E11" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F11" t="s">
-        <v>43</v>
+        <v>119</v>
       </c>
       <c r="G11" t="s">
         <v>31</v>
@@ -1579,11 +1582,11 @@
         <v>32</v>
       </c>
       <c r="J11" t="s">
+        <v>34</v>
+      </c>
+      <c r="K11" t="s">
         <v>45</v>
       </c>
-      <c r="K11" t="s">
-        <v>46</v>
-      </c>
       <c r="L11" t="s">
         <v>32</v>
       </c>
@@ -1603,10 +1606,10 @@
         <v>32</v>
       </c>
       <c r="R11" t="s">
-        <v>32</v>
+        <v>120</v>
       </c>
       <c r="S11" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="T11" t="s">
         <v>32</v>
@@ -1621,30 +1624,30 @@
         <v>32</v>
       </c>
       <c r="X11" t="s">
-        <v>119</v>
+        <v>78</v>
       </c>
       <c r="Y11" t="s">
-        <v>32</v>
+        <v>122</v>
       </c>
     </row>
     <row r="12" spans="1:25">
       <c r="A12" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
       </c>
       <c r="C12" t="s">
-        <v>121</v>
+        <v>63</v>
       </c>
       <c r="D12" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E12" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="F12" t="s">
-        <v>124</v>
+        <v>83</v>
       </c>
       <c r="G12" t="s">
         <v>31</v>
@@ -1656,11 +1659,11 @@
         <v>32</v>
       </c>
       <c r="J12" t="s">
+        <v>34</v>
+      </c>
+      <c r="K12" t="s">
         <v>45</v>
       </c>
-      <c r="K12" t="s">
-        <v>46</v>
-      </c>
       <c r="L12" t="s">
         <v>32</v>
       </c>
@@ -1680,10 +1683,10 @@
         <v>32</v>
       </c>
       <c r="R12" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="S12" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="T12" t="s">
         <v>32</v>
@@ -1698,30 +1701,30 @@
         <v>32</v>
       </c>
       <c r="X12" t="s">
-        <v>113</v>
+        <v>128</v>
       </c>
       <c r="Y12" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="13" spans="1:25">
       <c r="A13" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B13" t="s">
         <v>26</v>
       </c>
       <c r="C13" t="s">
-        <v>27</v>
+        <v>63</v>
       </c>
       <c r="D13" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E13" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="F13" t="s">
-        <v>43</v>
+        <v>83</v>
       </c>
       <c r="G13" t="s">
         <v>31</v>
@@ -1730,14 +1733,14 @@
         <v>32</v>
       </c>
       <c r="I13" t="s">
-        <v>32</v>
+        <v>133</v>
       </c>
       <c r="J13" t="s">
+        <v>34</v>
+      </c>
+      <c r="K13" t="s">
         <v>45</v>
       </c>
-      <c r="K13" t="s">
-        <v>46</v>
-      </c>
       <c r="L13" t="s">
         <v>32</v>
       </c>
@@ -1757,10 +1760,10 @@
         <v>32</v>
       </c>
       <c r="R13" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="S13" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="T13" t="s">
         <v>32</v>
@@ -1775,30 +1778,30 @@
         <v>32</v>
       </c>
       <c r="X13" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="Y13" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
     </row>
     <row r="14" spans="1:25">
       <c r="A14" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="B14" t="s">
         <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>27</v>
+        <v>63</v>
       </c>
       <c r="D14" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="E14" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="F14" t="s">
-        <v>43</v>
+        <v>83</v>
       </c>
       <c r="G14" t="s">
         <v>31</v>
@@ -1807,14 +1810,14 @@
         <v>32</v>
       </c>
       <c r="I14" t="s">
-        <v>138</v>
+        <v>32</v>
       </c>
       <c r="J14" t="s">
+        <v>34</v>
+      </c>
+      <c r="K14" t="s">
         <v>45</v>
       </c>
-      <c r="K14" t="s">
-        <v>46</v>
-      </c>
       <c r="L14" t="s">
         <v>32</v>
       </c>
@@ -1834,10 +1837,10 @@
         <v>32</v>
       </c>
       <c r="R14" t="s">
-        <v>139</v>
+        <v>32</v>
       </c>
       <c r="S14" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="T14" t="s">
         <v>32</v>
@@ -1852,10 +1855,10 @@
         <v>32</v>
       </c>
       <c r="X14" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="Y14" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
   </sheetData>
